--- a/Models/Prospective_conso/data/Hypotheses_Transport_Fret_1D.xlsx
+++ b/Models/Prospective_conso/data/Hypotheses_Transport_Fret_1D.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin.girard/Documents/Code/Etude/Energy-Alternatives-Planing/Models/Prospective_conso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A3495C-A014-D343-AD99-AB99B540D24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B700F6-DBA2-874B-9629-2B762D7DC7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20400" yWindow="3040" windowWidth="39920" windowHeight="21060" activeTab="3" xr2:uid="{F50204B1-83F4-DA42-A3C5-0BBDF8372860}"/>
+    <workbookView xWindow="21040" yWindow="4020" windowWidth="39920" windowHeight="21060" xr2:uid="{F50204B1-83F4-DA42-A3C5-0BBDF8372860}"/>
   </bookViews>
   <sheets>
     <sheet name="0D" sheetId="1" r:id="rId1"/>
     <sheet name="year" sheetId="6" r:id="rId2"/>
     <sheet name="year_Vecteur" sheetId="7" r:id="rId3"/>
-    <sheet name="Categorie" sheetId="3" r:id="rId4"/>
-    <sheet name="retrofit_Transition" sheetId="8" r:id="rId5"/>
+    <sheet name="Categorie_year" sheetId="9" r:id="rId4"/>
+    <sheet name="Categorie" sheetId="3" r:id="rId5"/>
+    <sheet name="retrofit_Transition" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
   <si>
     <t>Nom</t>
   </si>
@@ -63,15 +64,6 @@
     <t>date_fin</t>
   </si>
   <si>
-    <t>init_conso_unitaire_électrique</t>
-  </si>
-  <si>
-    <t>init_conso_unitaire_gaz</t>
-  </si>
-  <si>
-    <t>init_conso_unitaire_H2</t>
-  </si>
-  <si>
     <t>Vecteur</t>
   </si>
   <si>
@@ -81,15 +73,6 @@
     <t>H2</t>
   </si>
   <si>
-    <t>direct_emission</t>
-  </si>
-  <si>
-    <t>init_Vecteur</t>
-  </si>
-  <si>
-    <t>init_conso_unitaire_fuel</t>
-  </si>
-  <si>
     <t>fuel</t>
   </si>
   <si>
@@ -112,6 +95,27 @@
   </si>
   <si>
     <t>retrofit_change_total_proportion_Mds_t_km</t>
+  </si>
+  <si>
+    <t>direct_emissions</t>
+  </si>
+  <si>
+    <t>indirect_emissions</t>
+  </si>
+  <si>
+    <t>conso_unitaire_gaz</t>
+  </si>
+  <si>
+    <t>conso_unitaire_H2</t>
+  </si>
+  <si>
+    <t>conso_unitaire_électrique</t>
+  </si>
+  <si>
+    <t>conso_unitaire_fuel</t>
+  </si>
+  <si>
+    <t>init_energy_need_per_Mds_t_km</t>
   </si>
 </sst>
 </file>
@@ -152,11 +156,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -217,7 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -232,6 +238,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -549,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{779B33ED-9EE9-BB48-B4CA-335F6E62A50A}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -590,6 +599,14 @@
       </c>
       <c r="B4">
         <v>2050</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -615,7 +632,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -689,10 +706,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69DAC7EB-1A6F-3141-A691-43B6CE1216A5}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -700,20 +717,23 @@
     <col min="3" max="3" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>2020</v>
@@ -721,10 +741,13 @@
       <c r="C2" s="3">
         <v>264</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>2020</v>
@@ -732,10 +755,13 @@
       <c r="C3" s="4">
         <v>227</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>2020</v>
@@ -743,8 +769,11 @@
       <c r="C4">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -754,10 +783,13 @@
       <c r="C5">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>2035</v>
@@ -765,10 +797,13 @@
       <c r="C6" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>2035</v>
@@ -776,10 +811,13 @@
       <c r="C7" s="4">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>2035</v>
@@ -787,8 +825,11 @@
       <c r="C8">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -798,10 +839,13 @@
       <c r="C9">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>2050</v>
@@ -809,10 +853,13 @@
       <c r="C10" s="3">
         <v>160</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>2050</v>
@@ -820,10 +867,13 @@
       <c r="C11" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>2050</v>
@@ -831,8 +881,11 @@
       <c r="C12">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -841,6 +894,9 @@
       </c>
       <c r="C13">
         <v>20</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -849,153 +905,127 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9039F29E-2202-544B-A034-316D6E6A18F0}">
-  <dimension ref="A1:L6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F6A483-8A60-D84C-8038-8AFD60D566B1}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="7" width="27" customWidth="1"/>
-    <col min="9" max="9" width="26.1640625" customWidth="1"/>
-    <col min="10" max="10" width="17.83203125" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" customWidth="1"/>
+    <col min="3" max="7" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>2020</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>2020</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>2020</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3.2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="B5">
+        <v>2020</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.61371527777777779</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>50</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>300</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>50</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>50</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>3.2</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>700</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0.61371527777777779</v>
-      </c>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
+      <c r="B6">
+        <v>2020</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1004,14 +1034,8 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
         <v>245.48611111111109</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="L6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1019,6 +1043,85 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9039F29E-2202-544B-A034-316D6E6A18F0}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>300</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>700</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D1C53E1-07A4-9F44-81EF-FA7DBE0FC633}">
   <dimension ref="A1:W22"/>
   <sheetViews>
@@ -1040,19 +1143,19 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
@@ -1063,7 +1166,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1092,7 +1195,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5">
         <v>0.4</v>
@@ -1125,7 +1228,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1154,7 +1257,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1183,7 +1286,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>

--- a/Models/Prospective_conso/data/Hypotheses_Transport_Fret_1D.xlsx
+++ b/Models/Prospective_conso/data/Hypotheses_Transport_Fret_1D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin.girard/Documents/Code/Etude/Energy-Alternatives-Planing/Models/Prospective_conso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B700F6-DBA2-874B-9629-2B762D7DC7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBB8261-9203-DF48-8BCD-7FE7283542FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21040" yWindow="4020" windowWidth="39920" windowHeight="21060" xr2:uid="{F50204B1-83F4-DA42-A3C5-0BBDF8372860}"/>
+    <workbookView xWindow="29680" yWindow="4780" windowWidth="28800" windowHeight="16220" activeTab="4" xr2:uid="{F50204B1-83F4-DA42-A3C5-0BBDF8372860}"/>
   </bookViews>
   <sheets>
     <sheet name="0D" sheetId="1" r:id="rId1"/>
@@ -560,7 +560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{779B33ED-9EE9-BB48-B4CA-335F6E62A50A}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1046,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9039F29E-2202-544B-A034-316D6E6A18F0}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Models/Prospective_conso/data/Hypotheses_Transport_Fret_1D.xlsx
+++ b/Models/Prospective_conso/data/Hypotheses_Transport_Fret_1D.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin.girard/Documents/Code/Etude/Energy-Alternatives-Planing/Models/Prospective_conso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBB8261-9203-DF48-8BCD-7FE7283542FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEEAEE3-900D-D649-8F35-69D75C97520B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29680" yWindow="4780" windowWidth="28800" windowHeight="16220" activeTab="4" xr2:uid="{F50204B1-83F4-DA42-A3C5-0BBDF8372860}"/>
+    <workbookView xWindow="29680" yWindow="4780" windowWidth="28800" windowHeight="16220" activeTab="3" xr2:uid="{F50204B1-83F4-DA42-A3C5-0BBDF8372860}"/>
   </bookViews>
   <sheets>
     <sheet name="0D" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
   <si>
     <t>Nom</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>init_energy_need_per_Mds_t_km</t>
+  </si>
+  <si>
+    <t>need_reduction</t>
   </si>
 </sst>
 </file>
@@ -126,7 +129,7 @@
     <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;€&quot;_ ;_ * \(#,##0.00\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -161,6 +164,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -223,7 +233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -243,6 +253,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -906,10 +917,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F6A483-8A60-D84C-8038-8AFD60D566B1}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -917,7 +928,7 @@
     <col min="3" max="7" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -936,8 +947,11 @@
       <c r="F1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -956,8 +970,11 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -976,8 +993,11 @@
       <c r="F3">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -996,8 +1016,11 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1016,8 +1039,11 @@
       <c r="F5">
         <v>0.61371527777777779</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1035,6 +1061,239 @@
       </c>
       <c r="F6">
         <v>245.48611111111109</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>2035</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>2035</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>2035</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>3.2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>2035</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.61371527777777779</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>2035</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>245.48611111111109</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>2050</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>2050</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>2050</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>3.2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>2050</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.61371527777777779</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>2050</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>245.48611111111109</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1046,7 +1305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9039F29E-2202-544B-A034-316D6E6A18F0}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
